--- a/data/sources/2021_GIZ_TrIGGER_Kenya.xlsx
+++ b/data/sources/2021_GIZ_TrIGGER_Kenya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cenv0795\OneDrive - Nexus365\Code\CCG\TEAM-Kenya\data\sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekb15182\LocalCodeFolder\TEAM-Kenya\data\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2EFAAAAF-06D4-1144-9B4F-1D5D17A760ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{28B0FE2B-F5E4-4F07-B945-223B05A652E7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BD0917-4AAB-461D-8A19-2365CB916E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="780" windowWidth="28065" windowHeight="18000" tabRatio="773" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="773" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -47,6 +47,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Top-Down Validation'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -86,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="569">
   <si>
     <t>Road</t>
   </si>
@@ -1766,6 +1779,45 @@
   </si>
   <si>
     <t>GIZ assumptions TABLE 7 https://www.changing-transport.org/wp-content/uploads/2018_GIZ_INFRAS_Transport_Mitigation_Options_Kenya.pdf</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>2W</t>
+  </si>
+  <si>
+    <t>million vkm peryear</t>
+  </si>
+  <si>
+    <t>avg occupancy (passengers)</t>
+  </si>
+  <si>
+    <t>Minibus fleet</t>
+  </si>
+  <si>
+    <t>Big bus fleet</t>
+  </si>
+  <si>
+    <t>intercity coach fleet</t>
+  </si>
+  <si>
+    <t>Matatu-minibus</t>
+  </si>
+  <si>
+    <t>Matatu-bus</t>
+  </si>
+  <si>
+    <t>Coach</t>
+  </si>
+  <si>
+    <t>million pkm per year</t>
+  </si>
+  <si>
+    <t>UNDESA value, total road</t>
+  </si>
+  <si>
+    <t>(scaled to total)</t>
   </si>
 </sst>
 </file>
@@ -6371,7 +6423,7 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="119" fillId="72" borderId="90" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="650">
+  <cellXfs count="652">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7632,252 +7684,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="119" fillId="72" borderId="90" xfId="1172"/>
-    <xf numFmtId="0" fontId="102" fillId="58" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="58" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="30" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="31" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="32" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="55" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="55" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="55" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="55" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="80" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="28" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="29" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="83" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="84" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="85" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="55" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="55" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="55" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="55" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="60" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="60" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="60" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="55" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="55" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="55" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="55" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="55" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="55" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="55" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="55" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="58" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="58" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="58" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="58" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="58" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="58" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="58" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7897,6 +7703,258 @@
     </xf>
     <xf numFmtId="4" fontId="107" fillId="24" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="30" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="32" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="58" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="58" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="31" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="55" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="55" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="80" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="28" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="29" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="55" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="55" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="83" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="84" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="85" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="55" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="55" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="55" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="55" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="60" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="60" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="60" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="55" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="55" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="55" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="55" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="55" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="55" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="55" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="55" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="58" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="58" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="58" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="58" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="58" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="58" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="58" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="58" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="58" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="81" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1173">
@@ -17275,7 +17333,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Introduction"/>
@@ -17308,7 +17366,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Introduction"/>
@@ -17354,9 +17412,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -17394,9 +17452,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17429,26 +17487,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17481,26 +17522,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17684,11 +17708,11 @@
       <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="33"/>
+    <col min="1" max="1" width="12.3984375" style="33"/>
     <col min="2" max="2" width="16" style="33" customWidth="1"/>
-    <col min="3" max="16384" width="12.42578125" style="33"/>
+    <col min="3" max="16384" width="12.3984375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="90" customHeight="1">
@@ -17733,7 +17757,7 @@
       <c r="AM1" s="31"/>
       <c r="AN1" s="32"/>
     </row>
-    <row r="3" spans="1:40" ht="18.75">
+    <row r="3" spans="1:40" ht="18">
       <c r="H3" s="74" t="s">
         <v>316</v>
       </c>
@@ -17741,7 +17765,7 @@
       <c r="J3" s="36"/>
       <c r="K3" s="74"/>
     </row>
-    <row r="4" spans="1:40" ht="15.75">
+    <row r="4" spans="1:40" ht="15.4">
       <c r="H4" s="73" t="s">
         <v>297</v>
       </c>
@@ -17751,7 +17775,7 @@
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
     </row>
-    <row r="5" spans="1:40" ht="15.75">
+    <row r="5" spans="1:40" ht="15.4">
       <c r="H5" s="73" t="s">
         <v>298</v>
       </c>
@@ -17761,7 +17785,7 @@
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:40" ht="15.75">
+    <row r="6" spans="1:40" ht="15.4">
       <c r="H6" s="73" t="s">
         <v>299</v>
       </c>
@@ -17771,7 +17795,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
     </row>
-    <row r="7" spans="1:40" ht="15.75">
+    <row r="7" spans="1:40" ht="15.4">
       <c r="B7" s="34"/>
       <c r="H7" s="73" t="s">
         <v>300</v>
@@ -17782,7 +17806,7 @@
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
     </row>
-    <row r="8" spans="1:40" ht="15.75">
+    <row r="8" spans="1:40" ht="15.4">
       <c r="H8" s="73" t="s">
         <v>301</v>
       </c>
@@ -17792,7 +17816,7 @@
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
     </row>
-    <row r="9" spans="1:40" ht="15.75">
+    <row r="9" spans="1:40" ht="15.4">
       <c r="H9" s="73" t="s">
         <v>302</v>
       </c>
@@ -17812,7 +17836,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
     </row>
-    <row r="11" spans="1:40" ht="15.75">
+    <row r="11" spans="1:40" ht="15.4">
       <c r="B11" s="35"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -17828,7 +17852,7 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
     </row>
-    <row r="12" spans="1:40" ht="15.75">
+    <row r="12" spans="1:40" ht="15.4">
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -17844,7 +17868,7 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
     </row>
-    <row r="13" spans="1:40" ht="15.75">
+    <row r="13" spans="1:40" ht="15.4">
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -17860,7 +17884,7 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
     </row>
-    <row r="14" spans="1:40" ht="15.75">
+    <row r="14" spans="1:40" ht="15.4">
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -17892,7 +17916,7 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:40" ht="15.75">
+    <row r="16" spans="1:40" ht="15.4">
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -18320,15 +18344,15 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="2" max="3" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.1328125" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
@@ -18561,7 +18585,7 @@
       <c r="H12" s="465"/>
       <c r="I12" s="468"/>
     </row>
-    <row r="13" spans="1:11" s="25" customFormat="1" ht="18.75">
+    <row r="13" spans="1:11" s="25" customFormat="1" ht="18">
       <c r="A13" s="25" t="s">
         <v>480</v>
       </c>
@@ -18681,22 +18705,22 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25" style="44" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="44" customWidth="1"/>
-    <col min="9" max="10" width="20.42578125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="44" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="44" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="44" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="44"/>
+    <col min="2" max="2" width="15.265625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.3984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.265625" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.265625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="20.86328125" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.265625" style="44" customWidth="1"/>
+    <col min="9" max="10" width="20.3984375" style="44" customWidth="1"/>
+    <col min="11" max="11" width="20.265625" style="44" customWidth="1"/>
+    <col min="12" max="12" width="18.86328125" style="44" customWidth="1"/>
+    <col min="13" max="13" width="16.3984375" style="44" customWidth="1"/>
+    <col min="14" max="14" width="15.265625" style="44" customWidth="1"/>
+    <col min="15" max="16384" width="9.1328125" style="44"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18">
@@ -18710,25 +18734,25 @@
       <c r="E5" s="45"/>
     </row>
     <row r="6" spans="1:18" s="46" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A6" s="617" t="s">
+      <c r="A6" s="625" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="615" t="s">
+      <c r="B6" s="623" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="615" t="s">
+      <c r="C6" s="623" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="615" t="s">
+      <c r="D6" s="623" t="s">
         <v>380</v>
       </c>
-      <c r="E6" s="615" t="s">
+      <c r="E6" s="623" t="s">
         <v>381</v>
       </c>
-      <c r="F6" s="615" t="s">
+      <c r="F6" s="623" t="s">
         <v>200</v>
       </c>
-      <c r="G6" s="615" t="s">
+      <c r="G6" s="623" t="s">
         <v>196</v>
       </c>
       <c r="H6" s="312" t="s">
@@ -18754,13 +18778,13 @@
       </c>
     </row>
     <row r="7" spans="1:18" s="46" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="618"/>
-      <c r="B7" s="616"/>
-      <c r="C7" s="616"/>
-      <c r="D7" s="616"/>
-      <c r="E7" s="616"/>
-      <c r="F7" s="616"/>
-      <c r="G7" s="616"/>
+      <c r="A7" s="626"/>
+      <c r="B7" s="624"/>
+      <c r="C7" s="624"/>
+      <c r="D7" s="624"/>
+      <c r="E7" s="624"/>
+      <c r="F7" s="624"/>
+      <c r="G7" s="624"/>
       <c r="H7" s="228" t="s">
         <v>34</v>
       </c>
@@ -20162,7 +20186,7 @@
       <c r="Q38" s="372"/>
       <c r="R38" s="372"/>
     </row>
-    <row r="39" spans="1:18" ht="16.5" thickBot="1">
+    <row r="39" spans="1:18" ht="16.149999999999999" thickBot="1">
       <c r="A39" s="437" t="str">
         <f>'1A3di Maritime'!$B$2</f>
         <v>Kenya</v>
@@ -21615,28 +21639,28 @@
       <selection activeCell="U62" sqref="U62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="44" customWidth="1"/>
-    <col min="3" max="6" width="15.7109375" style="44" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" style="44" customWidth="1"/>
-    <col min="8" max="12" width="15.7109375" style="44" customWidth="1"/>
-    <col min="13" max="13" width="1.42578125" style="44" customWidth="1"/>
-    <col min="14" max="18" width="15.7109375" style="44" customWidth="1"/>
-    <col min="19" max="19" width="1.42578125" style="44" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" style="44" customWidth="1"/>
-    <col min="21" max="24" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" style="44" customWidth="1"/>
+    <col min="3" max="6" width="15.73046875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="1.3984375" style="44" customWidth="1"/>
+    <col min="8" max="12" width="15.73046875" style="44" customWidth="1"/>
+    <col min="13" max="13" width="1.3984375" style="44" customWidth="1"/>
+    <col min="14" max="18" width="15.73046875" style="44" customWidth="1"/>
+    <col min="19" max="19" width="1.3984375" style="44" customWidth="1"/>
+    <col min="20" max="20" width="15.73046875" style="44" customWidth="1"/>
+    <col min="21" max="24" width="15.73046875" customWidth="1"/>
     <col min="25" max="25" width="1" customWidth="1"/>
-    <col min="26" max="29" width="15.7109375" customWidth="1"/>
-    <col min="30" max="30" width="45.7109375" customWidth="1"/>
+    <col min="26" max="29" width="15.73046875" customWidth="1"/>
+    <col min="30" max="30" width="45.73046875" customWidth="1"/>
     <col min="31" max="31" width="19" customWidth="1"/>
-    <col min="32" max="32" width="15.7109375" customWidth="1"/>
-    <col min="33" max="36" width="15.7109375" style="44" customWidth="1"/>
-    <col min="37" max="16384" width="11.42578125" style="44"/>
+    <col min="32" max="32" width="15.73046875" customWidth="1"/>
+    <col min="33" max="36" width="15.73046875" style="44" customWidth="1"/>
+    <col min="37" max="16384" width="11.3984375" style="44"/>
   </cols>
   <sheetData>
-    <row r="4" spans="8:8" ht="18.75">
+    <row r="4" spans="8:8" ht="18">
       <c r="H4" s="71"/>
     </row>
     <row r="19" spans="2:36" ht="15.75" customHeight="1"/>
@@ -21660,53 +21684,53 @@
     </row>
     <row r="24" spans="2:36" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="25" spans="2:36" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B25" s="619" t="s">
+      <c r="B25" s="627" t="s">
         <v>341</v>
       </c>
-      <c r="C25" s="620"/>
-      <c r="D25" s="620"/>
-      <c r="E25" s="620"/>
-      <c r="F25" s="621"/>
+      <c r="C25" s="628"/>
+      <c r="D25" s="628"/>
+      <c r="E25" s="628"/>
+      <c r="F25" s="629"/>
       <c r="G25" s="44"/>
-      <c r="H25" s="619" t="s">
+      <c r="H25" s="627" t="s">
         <v>202</v>
       </c>
-      <c r="I25" s="620"/>
-      <c r="J25" s="620"/>
-      <c r="K25" s="620"/>
-      <c r="L25" s="621"/>
+      <c r="I25" s="628"/>
+      <c r="J25" s="628"/>
+      <c r="K25" s="628"/>
+      <c r="L25" s="629"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="619" t="s">
+      <c r="N25" s="627" t="s">
         <v>366</v>
       </c>
-      <c r="O25" s="620"/>
-      <c r="P25" s="620"/>
-      <c r="Q25" s="620"/>
-      <c r="R25" s="621"/>
+      <c r="O25" s="628"/>
+      <c r="P25" s="628"/>
+      <c r="Q25" s="628"/>
+      <c r="R25" s="629"/>
       <c r="S25" s="44"/>
-      <c r="T25" s="619" t="s">
+      <c r="T25" s="627" t="s">
         <v>333</v>
       </c>
-      <c r="U25" s="620"/>
-      <c r="V25" s="620"/>
-      <c r="W25" s="620"/>
-      <c r="X25" s="621"/>
+      <c r="U25" s="628"/>
+      <c r="V25" s="628"/>
+      <c r="W25" s="628"/>
+      <c r="X25" s="629"/>
       <c r="Y25" s="44"/>
-      <c r="Z25" s="619" t="s">
+      <c r="Z25" s="627" t="s">
         <v>331</v>
       </c>
-      <c r="AA25" s="620"/>
-      <c r="AB25" s="620"/>
-      <c r="AC25" s="620"/>
-      <c r="AD25" s="621"/>
+      <c r="AA25" s="628"/>
+      <c r="AB25" s="628"/>
+      <c r="AC25" s="628"/>
+      <c r="AD25" s="629"/>
       <c r="AE25" s="44"/>
-      <c r="AF25" s="619" t="s">
+      <c r="AF25" s="627" t="s">
         <v>335</v>
       </c>
-      <c r="AG25" s="620"/>
-      <c r="AH25" s="620"/>
-      <c r="AI25" s="620"/>
-      <c r="AJ25" s="621"/>
+      <c r="AG25" s="628"/>
+      <c r="AH25" s="628"/>
+      <c r="AI25" s="628"/>
+      <c r="AJ25" s="629"/>
     </row>
     <row r="26" spans="2:36" customFormat="1" ht="51" customHeight="1">
       <c r="B26" s="323" t="s">
@@ -22288,7 +22312,7 @@
       <c r="AI33" s="328"/>
       <c r="AJ33" s="330"/>
     </row>
-    <row r="34" spans="2:36" customFormat="1" ht="16.5" thickBot="1">
+    <row r="34" spans="2:36" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="B34" s="326" t="s">
         <v>288</v>
       </c>
@@ -22634,7 +22658,7 @@
       <c r="AF52" s="341"/>
       <c r="AJ52" s="342"/>
     </row>
-    <row r="53" spans="2:36" customFormat="1" ht="21.75" thickBot="1">
+    <row r="53" spans="2:36" customFormat="1" ht="21.4" thickBot="1">
       <c r="B53" s="334"/>
       <c r="C53" s="344"/>
       <c r="D53" s="344"/>
@@ -22680,15 +22704,15 @@
       <c r="AI53" s="344"/>
       <c r="AJ53" s="345"/>
     </row>
-    <row r="54" spans="2:36" ht="15.75" thickBot="1"/>
-    <row r="55" spans="2:36" ht="29.25" thickBot="1">
-      <c r="Z55" s="619" t="s">
+    <row r="54" spans="2:36" ht="14.65" thickBot="1"/>
+    <row r="55" spans="2:36" ht="28.9" thickBot="1">
+      <c r="Z55" s="627" t="s">
         <v>500</v>
       </c>
-      <c r="AA55" s="620"/>
-      <c r="AB55" s="620"/>
-      <c r="AC55" s="620"/>
-      <c r="AD55" s="621"/>
+      <c r="AA55" s="628"/>
+      <c r="AB55" s="628"/>
+      <c r="AC55" s="628"/>
+      <c r="AD55" s="629"/>
     </row>
     <row r="56" spans="2:36" ht="62.25" customHeight="1">
       <c r="Z56" s="323" t="s">
@@ -22829,7 +22853,7 @@
       <c r="Z64" s="341"/>
       <c r="AD64" s="342"/>
     </row>
-    <row r="65" spans="26:30" ht="16.5" thickBot="1">
+    <row r="65" spans="26:30" ht="16.149999999999999" thickBot="1">
       <c r="Z65" s="521" t="s">
         <v>503</v>
       </c>
@@ -22876,45 +22900,45 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="44" customWidth="1"/>
+    <col min="1" max="1" width="23.1328125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="36.3984375" style="44" customWidth="1"/>
     <col min="5" max="5" width="15" style="44" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="44"/>
+    <col min="6" max="16384" width="11.3984375" style="44"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:10" ht="59.45" customHeight="1"/>
     <row r="5" spans="1:10">
       <c r="J5" s="45"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="622" t="s">
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="630" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="622" t="s">
+      <c r="B6" s="630" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="623" t="s">
+      <c r="C6" s="631" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="622" t="s">
+      <c r="D6" s="630" t="s">
         <v>324</v>
       </c>
-      <c r="E6" s="622" t="s">
+      <c r="E6" s="630" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="622"/>
-      <c r="G6" s="622"/>
-      <c r="H6" s="622"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="622"/>
-      <c r="B7" s="622"/>
-      <c r="C7" s="616"/>
-      <c r="D7" s="622"/>
+      <c r="F6" s="630"/>
+      <c r="G6" s="630"/>
+      <c r="H6" s="630"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="630"/>
+      <c r="B7" s="630"/>
+      <c r="C7" s="624"/>
+      <c r="D7" s="630"/>
       <c r="E7" s="228" t="s">
         <v>161</v>
       </c>
@@ -23203,54 +23227,54 @@
   <dimension ref="A17:S86"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="44" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="44" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="44" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="25.265625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="33.86328125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" style="44" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="18.1328125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" style="44" customWidth="1"/>
+    <col min="9" max="9" width="19.3984375" style="44" customWidth="1"/>
+    <col min="10" max="10" width="2.86328125" style="44" customWidth="1"/>
     <col min="11" max="11" width="25" style="44" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" style="44" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" style="44" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" style="44" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="44" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" style="44" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="44"/>
+    <col min="12" max="12" width="33.265625" style="44" customWidth="1"/>
+    <col min="13" max="13" width="20.1328125" style="44" customWidth="1"/>
+    <col min="14" max="14" width="13.3984375" style="44" customWidth="1"/>
+    <col min="15" max="15" width="20.1328125" style="44" customWidth="1"/>
+    <col min="16" max="16" width="17.86328125" style="44" customWidth="1"/>
+    <col min="17" max="17" width="11.3984375" style="44" customWidth="1"/>
+    <col min="18" max="18" width="19.3984375" style="44" customWidth="1"/>
+    <col min="19" max="19" width="11.3984375" style="44"/>
   </cols>
   <sheetData>
-    <row r="17" spans="2:18" ht="15.75" thickBot="1"/>
-    <row r="18" spans="2:18" ht="20.25" thickBot="1">
-      <c r="B18" s="562" t="s">
+    <row r="17" spans="2:18" ht="14.65" thickBot="1"/>
+    <row r="18" spans="2:18" ht="19.899999999999999" thickBot="1">
+      <c r="B18" s="570" t="s">
         <v>363</v>
       </c>
-      <c r="C18" s="563"/>
-      <c r="D18" s="563"/>
-      <c r="E18" s="563"/>
-      <c r="F18" s="563"/>
-      <c r="G18" s="563"/>
-      <c r="H18" s="563"/>
-      <c r="I18" s="564"/>
-      <c r="K18" s="562" t="s">
+      <c r="C18" s="574"/>
+      <c r="D18" s="574"/>
+      <c r="E18" s="574"/>
+      <c r="F18" s="574"/>
+      <c r="G18" s="574"/>
+      <c r="H18" s="574"/>
+      <c r="I18" s="571"/>
+      <c r="K18" s="570" t="s">
         <v>207</v>
       </c>
-      <c r="L18" s="563"/>
-      <c r="M18" s="563"/>
-      <c r="N18" s="563"/>
-      <c r="O18" s="563"/>
-      <c r="P18" s="563"/>
-      <c r="Q18" s="563"/>
-      <c r="R18" s="564"/>
+      <c r="L18" s="574"/>
+      <c r="M18" s="574"/>
+      <c r="N18" s="574"/>
+      <c r="O18" s="574"/>
+      <c r="P18" s="574"/>
+      <c r="Q18" s="574"/>
+      <c r="R18" s="571"/>
     </row>
     <row r="19" spans="2:18" ht="47.25">
       <c r="B19" s="237" t="s">
@@ -23929,7 +23953,7 @@
       <c r="K85" s="332"/>
       <c r="R85" s="333"/>
     </row>
-    <row r="86" spans="2:18" ht="15.75" thickBot="1">
+    <row r="86" spans="2:18" ht="14.65" thickBot="1">
       <c r="B86" s="348"/>
       <c r="C86" s="349"/>
       <c r="D86" s="349"/>
@@ -23968,14 +23992,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="76" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="76" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="76" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="76" customWidth="1"/>
-    <col min="5" max="13" width="12.140625" style="76" customWidth="1"/>
-    <col min="14" max="16384" width="10.28515625" style="76"/>
+    <col min="1" max="1" width="26.265625" style="76" customWidth="1"/>
+    <col min="2" max="2" width="31.86328125" style="76" customWidth="1"/>
+    <col min="3" max="3" width="15.73046875" style="76" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" style="76" customWidth="1"/>
+    <col min="5" max="13" width="12.1328125" style="76" customWidth="1"/>
+    <col min="14" max="16384" width="10.265625" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="77.25" customHeight="1">
@@ -23992,56 +24016,56 @@
       <c r="G4" s="397"/>
     </row>
     <row r="5" spans="1:13" ht="71.25" customHeight="1">
-      <c r="A5" s="576" t="s">
+      <c r="A5" s="584" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="589"/>
+      <c r="B5" s="586"/>
       <c r="C5" s="240" t="s">
         <v>388</v>
       </c>
       <c r="D5" s="240" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="579" t="s">
+      <c r="E5" s="587" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="577"/>
-      <c r="G5" s="589"/>
-      <c r="H5" s="579" t="s">
+      <c r="F5" s="585"/>
+      <c r="G5" s="586"/>
+      <c r="H5" s="587" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="577"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="579" t="s">
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587" t="s">
         <v>163</v>
       </c>
-      <c r="L5" s="577"/>
-      <c r="M5" s="578"/>
+      <c r="L5" s="585"/>
+      <c r="M5" s="588"/>
     </row>
     <row r="6" spans="1:13" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A6" s="627" t="s">
+      <c r="A6" s="635" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="628"/>
+      <c r="B6" s="636"/>
       <c r="C6" s="427" t="s">
         <v>389</v>
       </c>
       <c r="D6" s="427" t="s">
         <v>393</v>
       </c>
-      <c r="E6" s="629" t="s">
+      <c r="E6" s="637" t="s">
         <v>390</v>
       </c>
-      <c r="F6" s="629"/>
-      <c r="G6" s="629"/>
-      <c r="H6" s="624" t="s">
+      <c r="F6" s="637"/>
+      <c r="G6" s="637"/>
+      <c r="H6" s="632" t="s">
         <v>392</v>
       </c>
-      <c r="I6" s="625"/>
-      <c r="J6" s="625"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="625"/>
-      <c r="M6" s="626"/>
+      <c r="I6" s="633"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="633"/>
+      <c r="M6" s="634"/>
     </row>
     <row r="7" spans="1:13" ht="32.25" customHeight="1">
       <c r="A7" s="424" t="s">
@@ -24839,39 +24863,39 @@
       <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.3984375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="76" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="76" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="76" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="76" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" style="76" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" style="76" customWidth="1"/>
+    <col min="3" max="3" width="28.3984375" style="76" customWidth="1"/>
+    <col min="4" max="4" width="18.86328125" style="76" customWidth="1"/>
     <col min="5" max="5" width="19" style="76" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="76" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="76" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="76"/>
-    <col min="9" max="9" width="11.85546875" style="76" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="76" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="79" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="76" customWidth="1"/>
-    <col min="13" max="14" width="7.42578125" style="76" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="76" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="76" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" style="76" customWidth="1"/>
+    <col min="6" max="6" width="25.3984375" style="76" customWidth="1"/>
+    <col min="7" max="7" width="24.265625" style="76" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" style="76"/>
+    <col min="9" max="9" width="11.86328125" style="76" customWidth="1"/>
+    <col min="10" max="10" width="20.265625" style="76" customWidth="1"/>
+    <col min="11" max="11" width="12.73046875" style="79" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" style="76" customWidth="1"/>
+    <col min="13" max="14" width="7.3984375" style="76" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.73046875" style="76" customWidth="1"/>
+    <col min="16" max="16" width="12.265625" style="76" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.73046875" style="76" customWidth="1"/>
     <col min="18" max="18" width="29" style="76" customWidth="1"/>
-    <col min="19" max="19" width="30.140625" style="76" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" style="76" customWidth="1"/>
-    <col min="21" max="16384" width="12.42578125" style="76"/>
+    <col min="19" max="19" width="30.1328125" style="76" customWidth="1"/>
+    <col min="20" max="20" width="26.73046875" style="76" customWidth="1"/>
+    <col min="21" max="16384" width="12.3984375" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="77.25" customHeight="1">
       <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:20" ht="60" customHeight="1" thickBot="1">
-      <c r="A2" s="630"/>
-      <c r="B2" s="630"/>
-      <c r="C2" s="630"/>
-      <c r="D2" s="630"/>
-      <c r="E2" s="630"/>
+      <c r="A2" s="638"/>
+      <c r="B2" s="638"/>
+      <c r="C2" s="638"/>
+      <c r="D2" s="638"/>
+      <c r="E2" s="638"/>
     </row>
     <row r="3" spans="1:20" ht="56.25" customHeight="1">
       <c r="A3" s="241" t="s">
@@ -24965,10 +24989,10 @@
       <c r="O4" s="14">
         <v>0</v>
       </c>
-      <c r="S4" s="631" t="s">
+      <c r="S4" s="639" t="s">
         <v>438</v>
       </c>
-      <c r="T4" s="632"/>
+      <c r="T4" s="640"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="246" t="str">
@@ -32759,7 +32783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="16.5" thickBot="1">
+    <row r="163" spans="1:15" ht="16.149999999999999" thickBot="1">
       <c r="A163" s="411" t="str">
         <f t="shared" si="11"/>
         <v>MG64</v>
@@ -32827,34 +32851,34 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.265625" customWidth="1"/>
+    <col min="10" max="10" width="5.1328125" customWidth="1"/>
+    <col min="11" max="12" width="11.3984375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:13" ht="14.65" thickBot="1"/>
     <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="174"/>
       <c r="B3" s="252" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="633" t="s">
+      <c r="C3" s="641" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="634"/>
-      <c r="E3" s="634"/>
-      <c r="F3" s="634"/>
-      <c r="G3" s="634"/>
-      <c r="H3" s="634"/>
-      <c r="I3" s="634"/>
-      <c r="J3" s="634"/>
-      <c r="K3" s="634"/>
-      <c r="L3" s="634"/>
-      <c r="M3" s="635"/>
+      <c r="D3" s="642"/>
+      <c r="E3" s="642"/>
+      <c r="F3" s="642"/>
+      <c r="G3" s="642"/>
+      <c r="H3" s="642"/>
+      <c r="I3" s="642"/>
+      <c r="J3" s="642"/>
+      <c r="K3" s="642"/>
+      <c r="L3" s="642"/>
+      <c r="M3" s="643"/>
     </row>
     <row r="4" spans="1:13" ht="15.75">
       <c r="A4" s="174" t="s">
@@ -32863,19 +32887,19 @@
       <c r="B4" s="253" t="s">
         <v>431</v>
       </c>
-      <c r="C4" s="636" t="s">
+      <c r="C4" s="644" t="s">
         <v>436</v>
       </c>
-      <c r="D4" s="637"/>
-      <c r="E4" s="637"/>
-      <c r="F4" s="637"/>
-      <c r="G4" s="637"/>
-      <c r="H4" s="637"/>
-      <c r="I4" s="637"/>
-      <c r="J4" s="637"/>
-      <c r="K4" s="637"/>
-      <c r="L4" s="637"/>
-      <c r="M4" s="638"/>
+      <c r="D4" s="645"/>
+      <c r="E4" s="645"/>
+      <c r="F4" s="645"/>
+      <c r="G4" s="645"/>
+      <c r="H4" s="645"/>
+      <c r="I4" s="645"/>
+      <c r="J4" s="645"/>
+      <c r="K4" s="645"/>
+      <c r="L4" s="645"/>
+      <c r="M4" s="646"/>
     </row>
     <row r="5" spans="1:13" ht="31.5">
       <c r="A5" s="174" t="s">
@@ -32884,19 +32908,19 @@
       <c r="B5" s="253" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="639" t="s">
+      <c r="C5" s="647" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="637"/>
-      <c r="E5" s="637"/>
-      <c r="F5" s="637"/>
-      <c r="G5" s="637"/>
-      <c r="H5" s="637"/>
-      <c r="I5" s="637"/>
-      <c r="J5" s="637"/>
-      <c r="K5" s="637"/>
-      <c r="L5" s="637"/>
-      <c r="M5" s="638"/>
+      <c r="D5" s="645"/>
+      <c r="E5" s="645"/>
+      <c r="F5" s="645"/>
+      <c r="G5" s="645"/>
+      <c r="H5" s="645"/>
+      <c r="I5" s="645"/>
+      <c r="J5" s="645"/>
+      <c r="K5" s="645"/>
+      <c r="L5" s="645"/>
+      <c r="M5" s="646"/>
     </row>
     <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="174" t="s">
@@ -32905,19 +32929,19 @@
       <c r="B6" s="253" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="639" t="s">
+      <c r="C6" s="647" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="637"/>
-      <c r="E6" s="637"/>
-      <c r="F6" s="637"/>
-      <c r="G6" s="637"/>
-      <c r="H6" s="637"/>
-      <c r="I6" s="637"/>
-      <c r="J6" s="637"/>
-      <c r="K6" s="637"/>
-      <c r="L6" s="637"/>
-      <c r="M6" s="638"/>
+      <c r="D6" s="645"/>
+      <c r="E6" s="645"/>
+      <c r="F6" s="645"/>
+      <c r="G6" s="645"/>
+      <c r="H6" s="645"/>
+      <c r="I6" s="645"/>
+      <c r="J6" s="645"/>
+      <c r="K6" s="645"/>
+      <c r="L6" s="645"/>
+      <c r="M6" s="646"/>
     </row>
     <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="175" t="s">
@@ -32926,19 +32950,19 @@
       <c r="B7" s="253" t="s">
         <v>434</v>
       </c>
-      <c r="C7" s="640" t="s">
+      <c r="C7" s="648" t="s">
         <v>435</v>
       </c>
-      <c r="D7" s="641"/>
-      <c r="E7" s="641"/>
-      <c r="F7" s="641"/>
-      <c r="G7" s="641"/>
-      <c r="H7" s="641"/>
-      <c r="I7" s="641"/>
-      <c r="J7" s="641"/>
-      <c r="K7" s="641"/>
-      <c r="L7" s="641"/>
-      <c r="M7" s="641"/>
+      <c r="D7" s="649"/>
+      <c r="E7" s="649"/>
+      <c r="F7" s="649"/>
+      <c r="G7" s="649"/>
+      <c r="H7" s="649"/>
+      <c r="I7" s="649"/>
+      <c r="J7" s="649"/>
+      <c r="K7" s="649"/>
+      <c r="L7" s="649"/>
+      <c r="M7" s="649"/>
     </row>
     <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="175" t="s">
@@ -32988,17 +33012,17 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.3984375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="4"/>
-    <col min="5" max="5" width="34.42578125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="12.42578125" style="4"/>
+    <col min="1" max="1" width="17.265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.73046875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.3984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="4"/>
+    <col min="5" max="5" width="34.3984375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="12.3984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1">
+    <row r="1" spans="1:3" ht="16.149999999999999" thickBot="1">
       <c r="A1" s="317"/>
       <c r="C1" s="317"/>
     </row>
@@ -33189,7 +33213,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1">
+    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1">
       <c r="A19" s="376" t="s">
         <v>382</v>
       </c>
@@ -33230,7 +33254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33248,36 +33272,36 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="335" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="335" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="335" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.3984375" style="335" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" style="335" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" style="335" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" style="335" customWidth="1"/>
     <col min="5" max="5" width="12" style="335" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="336" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" style="335" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="335" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" style="336" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.3984375" style="335" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" style="335" customWidth="1"/>
     <col min="9" max="9" width="11" style="336" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="335" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="335" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="335" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="335" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="335" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="335" customWidth="1"/>
+    <col min="10" max="10" width="2.3984375" style="335" customWidth="1"/>
+    <col min="11" max="11" width="18.3984375" style="335" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" style="335" customWidth="1"/>
+    <col min="13" max="13" width="17.1328125" style="335" customWidth="1"/>
+    <col min="14" max="14" width="9.1328125" style="335" customWidth="1"/>
+    <col min="15" max="15" width="16.86328125" style="335" customWidth="1"/>
     <col min="16" max="16" width="11" style="336" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2" style="335" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="335" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="335" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" style="335" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="335" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" style="335" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="335" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.140625" style="335" customWidth="1"/>
+    <col min="18" max="18" width="13.86328125" style="335" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.3984375" style="335" customWidth="1"/>
+    <col min="20" max="20" width="13.86328125" style="335" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.3984375" style="335" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.86328125" style="335" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.3984375" style="335" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.1328125" style="335" customWidth="1"/>
     <col min="25" max="26" width="14" style="335" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" style="335"/>
-    <col min="30" max="30" width="16.28515625" style="335" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="335"/>
+    <col min="27" max="29" width="9.1328125" style="335"/>
+    <col min="30" max="30" width="16.265625" style="335" customWidth="1"/>
+    <col min="31" max="16384" width="9.1328125" style="335"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:147" ht="27.75" customHeight="1" thickBot="1">
@@ -33311,10 +33335,10 @@
       <c r="P3" s="336"/>
     </row>
     <row r="4" spans="1:147" s="19" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="A4" s="560" t="s">
+      <c r="A4" s="572" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="561"/>
+      <c r="B4" s="573"/>
       <c r="F4" s="336"/>
       <c r="I4" s="336"/>
       <c r="P4" s="336"/>
@@ -33326,99 +33350,99 @@
       <c r="I5" s="336"/>
       <c r="P5" s="336"/>
     </row>
-    <row r="6" spans="1:147" s="19" customFormat="1" ht="16.5" thickBot="1">
+    <row r="6" spans="1:147" s="19" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A6" s="20"/>
       <c r="B6" s="335"/>
       <c r="F6" s="336"/>
       <c r="I6" s="336"/>
       <c r="P6" s="336"/>
     </row>
-    <row r="7" spans="1:147" s="19" customFormat="1" ht="20.25" thickBot="1">
-      <c r="A7" s="562" t="s">
+    <row r="7" spans="1:147" s="19" customFormat="1" ht="19.899999999999999" thickBot="1">
+      <c r="A7" s="570" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="563"/>
-      <c r="C7" s="564"/>
+      <c r="B7" s="574"/>
+      <c r="C7" s="571"/>
       <c r="D7" s="335"/>
-      <c r="E7" s="562" t="s">
+      <c r="E7" s="570" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="564"/>
+      <c r="F7" s="571"/>
       <c r="G7" s="335"/>
-      <c r="H7" s="562" t="s">
+      <c r="H7" s="570" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="564"/>
+      <c r="I7" s="571"/>
       <c r="J7" s="335"/>
-      <c r="K7" s="562" t="s">
+      <c r="K7" s="570" t="s">
         <v>220</v>
       </c>
-      <c r="L7" s="563"/>
-      <c r="M7" s="563"/>
-      <c r="N7" s="563"/>
-      <c r="O7" s="563"/>
-      <c r="P7" s="564"/>
+      <c r="L7" s="574"/>
+      <c r="M7" s="574"/>
+      <c r="N7" s="574"/>
+      <c r="O7" s="574"/>
+      <c r="P7" s="571"/>
       <c r="Q7" s="335"/>
-      <c r="R7" s="562" t="s">
+      <c r="R7" s="570" t="s">
         <v>284</v>
       </c>
-      <c r="S7" s="563"/>
-      <c r="T7" s="563"/>
-      <c r="U7" s="563"/>
-      <c r="V7" s="563"/>
-      <c r="W7" s="564"/>
-      <c r="Y7" s="562" t="s">
+      <c r="S7" s="574"/>
+      <c r="T7" s="574"/>
+      <c r="U7" s="574"/>
+      <c r="V7" s="574"/>
+      <c r="W7" s="571"/>
+      <c r="Y7" s="570" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="563"/>
-      <c r="AA7" s="564"/>
+      <c r="Z7" s="574"/>
+      <c r="AA7" s="571"/>
     </row>
     <row r="8" spans="1:147" s="22" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A8" s="565" t="s">
+      <c r="A8" s="575" t="s">
         <v>376</v>
       </c>
-      <c r="B8" s="571" t="s">
+      <c r="B8" s="581" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="567" t="s">
+      <c r="C8" s="577" t="s">
         <v>196</v>
       </c>
       <c r="D8" s="80"/>
-      <c r="E8" s="573" t="s">
+      <c r="E8" s="568" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="574"/>
+      <c r="F8" s="583"/>
       <c r="G8" s="80"/>
-      <c r="H8" s="573" t="s">
+      <c r="H8" s="568" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="574"/>
+      <c r="I8" s="583"/>
       <c r="J8" s="80"/>
-      <c r="K8" s="573" t="s">
+      <c r="K8" s="568" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="575"/>
-      <c r="M8" s="573" t="s">
+      <c r="L8" s="569"/>
+      <c r="M8" s="568" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="575"/>
-      <c r="O8" s="573" t="s">
+      <c r="N8" s="569"/>
+      <c r="O8" s="568" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="574"/>
+      <c r="P8" s="583"/>
       <c r="Q8" s="80"/>
-      <c r="R8" s="573" t="s">
+      <c r="R8" s="568" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="575"/>
-      <c r="T8" s="573" t="s">
+      <c r="S8" s="569"/>
+      <c r="T8" s="568" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="575"/>
-      <c r="V8" s="573" t="s">
+      <c r="U8" s="569"/>
+      <c r="V8" s="568" t="s">
         <v>27</v>
       </c>
-      <c r="W8" s="574"/>
+      <c r="W8" s="583"/>
       <c r="X8" s="21"/>
       <c r="Y8" s="360" t="s">
         <v>357</v>
@@ -33426,7 +33450,7 @@
       <c r="Z8" s="361" t="s">
         <v>358</v>
       </c>
-      <c r="AA8" s="569" t="s">
+      <c r="AA8" s="579" t="s">
         <v>30</v>
       </c>
       <c r="AB8" s="21"/>
@@ -33550,10 +33574,10 @@
       <c r="EP8" s="21"/>
       <c r="EQ8" s="21"/>
     </row>
-    <row r="9" spans="1:147" s="24" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A9" s="566"/>
-      <c r="B9" s="572"/>
-      <c r="C9" s="568"/>
+    <row r="9" spans="1:147" s="24" customFormat="1" ht="31.9" thickBot="1">
+      <c r="A9" s="576"/>
+      <c r="B9" s="582"/>
+      <c r="C9" s="578"/>
       <c r="D9" s="81"/>
       <c r="E9" s="82" t="s">
         <v>38</v>
@@ -33613,7 +33637,7 @@
       <c r="Z9" s="354" t="s">
         <v>243</v>
       </c>
-      <c r="AA9" s="570"/>
+      <c r="AA9" s="580"/>
       <c r="AB9" s="23"/>
       <c r="AC9" s="23"/>
       <c r="AD9" s="23"/>
@@ -34295,13 +34319,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="Y7:AA7"/>
     <mergeCell ref="B8:B9"/>
@@ -34314,6 +34331,13 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="'Top-Down Validation'!H9" display="→Go to: Top-Down Validation" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -34329,57 +34353,57 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H37" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I5" sqref="I5"/>
       <selection pane="topRight" activeCell="I5" sqref="I5"/>
       <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="1.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="10.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="1.42578125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.3984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="1.3984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.3984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.86328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.73046875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.73046875" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="1.86328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.73046875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="10.73046875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.3984375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="1.3984375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="10.1328125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.3984375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="11.73046875" style="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.265625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.3984375" style="1" customWidth="1"/>
     <col min="26" max="26" width="7" style="1" customWidth="1"/>
-    <col min="27" max="27" width="27.42578125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="1.42578125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15.140625" style="6" customWidth="1"/>
-    <col min="33" max="34" width="12.42578125" style="6" customWidth="1"/>
-    <col min="35" max="35" width="1.7109375" style="3" customWidth="1"/>
-    <col min="36" max="36" width="13.140625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="27.3984375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="1.3984375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.3984375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.73046875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.1328125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15.1328125" style="6" customWidth="1"/>
+    <col min="33" max="34" width="12.3984375" style="6" customWidth="1"/>
+    <col min="35" max="35" width="1.73046875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="13.1328125" style="3" customWidth="1"/>
     <col min="37" max="37" width="11" style="3" customWidth="1"/>
-    <col min="38" max="38" width="17.28515625" style="3" customWidth="1"/>
-    <col min="39" max="39" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.28515625" style="3" customWidth="1"/>
-    <col min="41" max="16384" width="11.42578125" style="1"/>
+    <col min="38" max="38" width="17.265625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="14.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.265625" style="3" customWidth="1"/>
+    <col min="41" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="27.75" customHeight="1" thickBot="1">
@@ -34447,10 +34471,10 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:40" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A4" s="560" t="s">
+      <c r="A4" s="572" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="561"/>
+      <c r="B4" s="573"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="102" customHeight="1" thickBot="1">
@@ -34458,118 +34482,118 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:40" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="562" t="s">
+      <c r="A6" s="570" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="563"/>
-      <c r="C6" s="563"/>
-      <c r="D6" s="563"/>
-      <c r="E6" s="563"/>
-      <c r="F6" s="564"/>
-      <c r="H6" s="562" t="s">
+      <c r="B6" s="574"/>
+      <c r="C6" s="574"/>
+      <c r="D6" s="574"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="571"/>
+      <c r="H6" s="570" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="563"/>
-      <c r="J6" s="563"/>
-      <c r="K6" s="563"/>
-      <c r="L6" s="564"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="574"/>
+      <c r="K6" s="574"/>
+      <c r="L6" s="571"/>
       <c r="M6" s="40"/>
       <c r="O6" s="41"/>
-      <c r="P6" s="562" t="s">
+      <c r="P6" s="570" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="563"/>
-      <c r="R6" s="564"/>
-      <c r="T6" s="562" t="s">
+      <c r="Q6" s="574"/>
+      <c r="R6" s="571"/>
+      <c r="T6" s="570" t="s">
         <v>321</v>
       </c>
-      <c r="U6" s="563"/>
-      <c r="V6" s="563"/>
-      <c r="W6" s="563"/>
-      <c r="X6" s="563"/>
-      <c r="Y6" s="563"/>
-      <c r="Z6" s="563"/>
-      <c r="AA6" s="564"/>
-      <c r="AC6" s="562" t="s">
+      <c r="U6" s="574"/>
+      <c r="V6" s="574"/>
+      <c r="W6" s="574"/>
+      <c r="X6" s="574"/>
+      <c r="Y6" s="574"/>
+      <c r="Z6" s="574"/>
+      <c r="AA6" s="571"/>
+      <c r="AC6" s="570" t="s">
         <v>7</v>
       </c>
-      <c r="AD6" s="563"/>
-      <c r="AE6" s="563"/>
-      <c r="AF6" s="563"/>
-      <c r="AG6" s="563"/>
-      <c r="AH6" s="564"/>
-      <c r="AJ6" s="562" t="s">
+      <c r="AD6" s="574"/>
+      <c r="AE6" s="574"/>
+      <c r="AF6" s="574"/>
+      <c r="AG6" s="574"/>
+      <c r="AH6" s="571"/>
+      <c r="AJ6" s="570" t="s">
         <v>8</v>
       </c>
-      <c r="AK6" s="563"/>
-      <c r="AL6" s="563"/>
-      <c r="AM6" s="563"/>
-      <c r="AN6" s="564"/>
+      <c r="AK6" s="574"/>
+      <c r="AL6" s="574"/>
+      <c r="AM6" s="574"/>
+      <c r="AN6" s="571"/>
     </row>
     <row r="7" spans="1:40" s="7" customFormat="1" ht="31.5">
-      <c r="A7" s="580" t="s">
+      <c r="A7" s="591" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="582" t="s">
+      <c r="B7" s="589" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="582" t="s">
+      <c r="C7" s="589" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="582" t="s">
+      <c r="D7" s="589" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="584" t="s">
+      <c r="E7" s="593" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="574" t="s">
+      <c r="F7" s="583" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="99"/>
-      <c r="H7" s="573" t="s">
+      <c r="H7" s="568" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="575"/>
-      <c r="J7" s="587" t="s">
+      <c r="I7" s="569"/>
+      <c r="J7" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="575"/>
-      <c r="L7" s="587" t="s">
+      <c r="K7" s="569"/>
+      <c r="L7" s="596" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="578"/>
+      <c r="M7" s="588"/>
       <c r="N7" s="99"/>
       <c r="O7" s="100"/>
       <c r="P7" s="396" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="588" t="s">
+      <c r="Q7" s="597" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="574"/>
+      <c r="R7" s="583"/>
       <c r="S7" s="99"/>
-      <c r="T7" s="576" t="s">
+      <c r="T7" s="584" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="589"/>
-      <c r="V7" s="579" t="s">
+      <c r="U7" s="586"/>
+      <c r="V7" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="W7" s="577"/>
-      <c r="X7" s="579" t="s">
+      <c r="W7" s="585"/>
+      <c r="X7" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="589"/>
-      <c r="Z7" s="579" t="s">
+      <c r="Y7" s="586"/>
+      <c r="Z7" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="AA7" s="578"/>
+      <c r="AA7" s="588"/>
       <c r="AB7" s="101"/>
-      <c r="AC7" s="576" t="s">
+      <c r="AC7" s="584" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="577"/>
-      <c r="AE7" s="589"/>
+      <c r="AD7" s="585"/>
+      <c r="AE7" s="586"/>
       <c r="AF7" s="102" t="s">
         <v>25</v>
       </c>
@@ -34580,23 +34604,23 @@
         <v>27</v>
       </c>
       <c r="AI7" s="99"/>
-      <c r="AJ7" s="576" t="s">
+      <c r="AJ7" s="584" t="s">
         <v>28</v>
       </c>
-      <c r="AK7" s="577"/>
-      <c r="AL7" s="577"/>
-      <c r="AM7" s="577" t="s">
+      <c r="AK7" s="585"/>
+      <c r="AL7" s="585"/>
+      <c r="AM7" s="585" t="s">
         <v>8</v>
       </c>
-      <c r="AN7" s="578"/>
-    </row>
-    <row r="8" spans="1:40" s="8" customFormat="1" ht="48" thickBot="1">
-      <c r="A8" s="581"/>
-      <c r="B8" s="583"/>
-      <c r="C8" s="583"/>
-      <c r="D8" s="583"/>
-      <c r="E8" s="585"/>
-      <c r="F8" s="586"/>
+      <c r="AN7" s="588"/>
+    </row>
+    <row r="8" spans="1:40" s="8" customFormat="1" ht="47.65" thickBot="1">
+      <c r="A8" s="592"/>
+      <c r="B8" s="590"/>
+      <c r="C8" s="590"/>
+      <c r="D8" s="590"/>
+      <c r="E8" s="594"/>
+      <c r="F8" s="595"/>
       <c r="G8" s="104"/>
       <c r="H8" s="82" t="s">
         <v>29</v>
@@ -34751,18 +34775,18 @@
       <c r="AG9" s="268"/>
       <c r="AH9" s="277"/>
       <c r="AI9" s="114"/>
-      <c r="AJ9" s="644">
+      <c r="AJ9" s="562">
         <v>2</v>
       </c>
-      <c r="AK9" s="645"/>
-      <c r="AL9" s="645" t="s">
+      <c r="AK9" s="563"/>
+      <c r="AL9" s="563" t="s">
         <v>555</v>
       </c>
-      <c r="AM9" s="646">
+      <c r="AM9" s="564">
         <f>+$L9*AJ9</f>
         <v>23663.230653222399</v>
       </c>
-      <c r="AN9" s="647">
+      <c r="AN9" s="565">
         <f t="shared" ref="AN9:AN15" si="0">+$L9*AK9</f>
         <v>0</v>
       </c>
@@ -34879,16 +34903,16 @@
         <v>7.4417930618849076E-2</v>
       </c>
       <c r="AI10" s="114"/>
-      <c r="AJ10" s="643">
+      <c r="AJ10" s="561">
         <v>2</v>
       </c>
-      <c r="AK10" s="648"/>
-      <c r="AL10" s="649"/>
-      <c r="AM10" s="646">
-        <f t="shared" ref="AM9:AM15" si="7">+$L10*AJ10</f>
+      <c r="AK10" s="566"/>
+      <c r="AL10" s="567"/>
+      <c r="AM10" s="564">
+        <f t="shared" ref="AM10:AM15" si="7">+$L10*AJ10</f>
         <v>18199.776213201749</v>
       </c>
-      <c r="AN10" s="647">
+      <c r="AN10" s="565">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -34926,7 +34950,7 @@
         <v>398</v>
       </c>
       <c r="L11" s="127">
-        <f t="shared" ref="L10:L15" si="8">H11*J11/10^6</f>
+        <f t="shared" ref="L11:L15" si="8">H11*J11/10^6</f>
         <v>220.67973396546321</v>
       </c>
       <c r="M11" s="128" t="s">
@@ -35005,16 +35029,16 @@
         <v>1.6569596154859337E-3</v>
       </c>
       <c r="AI11" s="114"/>
-      <c r="AJ11" s="643">
+      <c r="AJ11" s="561">
         <v>2</v>
       </c>
-      <c r="AK11" s="648"/>
-      <c r="AL11" s="649"/>
-      <c r="AM11" s="646">
+      <c r="AK11" s="566"/>
+      <c r="AL11" s="567"/>
+      <c r="AM11" s="564">
         <f t="shared" si="7"/>
         <v>441.35946793092643</v>
       </c>
-      <c r="AN11" s="647">
+      <c r="AN11" s="565">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35131,16 +35155,16 @@
         <v>1.7635401589362006E-2</v>
       </c>
       <c r="AI12" s="114"/>
-      <c r="AJ12" s="643">
+      <c r="AJ12" s="561">
         <v>2</v>
       </c>
-      <c r="AK12" s="648"/>
-      <c r="AL12" s="649"/>
-      <c r="AM12" s="646">
+      <c r="AK12" s="566"/>
+      <c r="AL12" s="567"/>
+      <c r="AM12" s="564">
         <f t="shared" si="7"/>
         <v>3622.5543652134279</v>
       </c>
-      <c r="AN12" s="647">
+      <c r="AN12" s="565">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35257,16 +35281,16 @@
         <v>1.5014598723325132E-3</v>
       </c>
       <c r="AI13" s="114"/>
-      <c r="AJ13" s="643">
+      <c r="AJ13" s="561">
         <v>2</v>
       </c>
-      <c r="AK13" s="648"/>
-      <c r="AL13" s="649"/>
-      <c r="AM13" s="646">
+      <c r="AK13" s="566"/>
+      <c r="AL13" s="567"/>
+      <c r="AM13" s="564">
         <f t="shared" si="7"/>
         <v>310.46975329245669</v>
       </c>
-      <c r="AN13" s="647">
+      <c r="AN13" s="565">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35383,21 +35407,21 @@
         <v>2.5509854865106174E-3</v>
       </c>
       <c r="AI14" s="114"/>
-      <c r="AJ14" s="643">
+      <c r="AJ14" s="561">
         <v>2</v>
       </c>
-      <c r="AK14" s="648"/>
-      <c r="AL14" s="649"/>
-      <c r="AM14" s="646">
+      <c r="AK14" s="566"/>
+      <c r="AL14" s="567"/>
+      <c r="AM14" s="564">
         <f t="shared" si="7"/>
         <v>406.8308623937948</v>
       </c>
-      <c r="AN14" s="647">
+      <c r="AN14" s="565">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="10" customFormat="1" ht="16.5" outlineLevel="1" thickBot="1">
+    <row r="15" spans="1:40" s="10" customFormat="1" ht="16.149999999999999" outlineLevel="1" thickBot="1">
       <c r="A15" s="136" t="s">
         <v>323</v>
       </c>
@@ -35509,16 +35533,16 @@
         <v>4.3368060510156842E-3</v>
       </c>
       <c r="AI15" s="114"/>
-      <c r="AJ15" s="643">
+      <c r="AJ15" s="561">
         <v>2</v>
       </c>
-      <c r="AK15" s="648"/>
-      <c r="AL15" s="649"/>
-      <c r="AM15" s="646">
+      <c r="AK15" s="566"/>
+      <c r="AL15" s="567"/>
+      <c r="AM15" s="564">
         <f t="shared" si="7"/>
         <v>682.23999119003918</v>
       </c>
-      <c r="AN15" s="647">
+      <c r="AN15" s="565">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35584,13 +35608,13 @@
       <c r="AG16" s="268"/>
       <c r="AH16" s="277"/>
       <c r="AI16" s="114"/>
-      <c r="AJ16" s="643">
+      <c r="AJ16" s="561">
         <f>0.6*44</f>
         <v>26.4</v>
       </c>
       <c r="AK16" s="113"/>
       <c r="AL16" s="113"/>
-      <c r="AM16" s="646">
+      <c r="AM16" s="564">
         <f t="shared" ref="AM16:AM22" si="9">+$L16*AJ16</f>
         <v>93996.504491999993</v>
       </c>
@@ -35708,7 +35732,7 @@
         <v>1.2876574593546949E-3</v>
       </c>
       <c r="AI17" s="114"/>
-      <c r="AJ17" s="643">
+      <c r="AJ17" s="561">
         <f t="shared" ref="AJ17:AJ24" si="17">0.6*44</f>
         <v>26.4</v>
       </c>
@@ -35832,7 +35856,7 @@
         <v>1.9489743107659627E-3</v>
       </c>
       <c r="AI18" s="114"/>
-      <c r="AJ18" s="643">
+      <c r="AJ18" s="561">
         <f t="shared" si="17"/>
         <v>26.4</v>
       </c>
@@ -35843,7 +35867,7 @@
         <v>4042.85772</v>
       </c>
       <c r="AN18" s="127">
-        <f t="shared" ref="AN17:AN22" si="18">+$L18*AK18</f>
+        <f t="shared" ref="AN18:AN22" si="18">+$L18*AK18</f>
         <v>0</v>
       </c>
     </row>
@@ -35959,7 +35983,7 @@
         <v>1.6861890096750876E-3</v>
       </c>
       <c r="AI19" s="114"/>
-      <c r="AJ19" s="643">
+      <c r="AJ19" s="561">
         <f t="shared" si="17"/>
         <v>26.4</v>
       </c>
@@ -36086,7 +36110,7 @@
         <v>1.2211435892860429E-2</v>
       </c>
       <c r="AI20" s="114"/>
-      <c r="AJ20" s="643">
+      <c r="AJ20" s="561">
         <f t="shared" si="17"/>
         <v>26.4</v>
       </c>
@@ -36213,7 +36237,7 @@
         <v>5.0860294167325395E-4</v>
       </c>
       <c r="AI21" s="114"/>
-      <c r="AJ21" s="643">
+      <c r="AJ21" s="561">
         <f t="shared" si="17"/>
         <v>26.4</v>
       </c>
@@ -36340,7 +36364,7 @@
         <v>1.9449148862375695E-2</v>
       </c>
       <c r="AI22" s="114"/>
-      <c r="AJ22" s="643">
+      <c r="AJ22" s="561">
         <f t="shared" si="17"/>
         <v>26.4</v>
       </c>
@@ -36415,7 +36439,7 @@
       <c r="AG23" s="262"/>
       <c r="AH23" s="278"/>
       <c r="AI23" s="139"/>
-      <c r="AJ23" s="643">
+      <c r="AJ23" s="561">
         <f t="shared" si="17"/>
         <v>26.4</v>
       </c>
@@ -36536,7 +36560,7 @@
         <v>1.9595203642453481E-2</v>
       </c>
       <c r="AI24" s="114"/>
-      <c r="AJ24" s="643">
+      <c r="AJ24" s="561">
         <f t="shared" si="17"/>
         <v>26.4</v>
       </c>
@@ -38036,7 +38060,7 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="L38" s="642">
+      <c r="L38" s="560">
         <f>L34+L25+L23+L16+L9</f>
         <v>29096.451896774022</v>
       </c>
@@ -38064,35 +38088,174 @@
     </row>
     <row r="41" spans="1:40">
       <c r="A41" s="11"/>
+      <c r="B41" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="AD41" s="447"/>
     </row>
     <row r="42" spans="1:40">
-      <c r="A42" s="11"/>
+      <c r="A42" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B42" s="650">
+        <f>L9</f>
+        <v>11831.6153266112</v>
+      </c>
+      <c r="C42" s="11">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <f>B42*C42</f>
+        <v>23663.230653222399</v>
+      </c>
+      <c r="E42" s="1">
+        <f>D42/D$47*E$49</f>
+        <v>12782.70129037579</v>
+      </c>
+      <c r="F42" s="1">
+        <f>E42/E$47</f>
+        <v>0.24354926521717468</v>
+      </c>
       <c r="S42" s="1"/>
       <c r="U42" s="1"/>
     </row>
     <row r="43" spans="1:40">
-      <c r="A43" s="11"/>
+      <c r="A43" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B43" s="650">
+        <f>L34</f>
+        <v>9611.6487686077544</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D43" s="1">
+        <f>B43*C43</f>
+        <v>14417.473152911632</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" ref="E43:E47" si="29">D43/D$47*E$49</f>
+        <v>7788.2118201212343</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" ref="F43:F47" si="30">E43/E$47</f>
+        <v>0.14838907857248992</v>
+      </c>
       <c r="S43" s="1"/>
       <c r="U43" s="1"/>
     </row>
     <row r="44" spans="1:40">
-      <c r="A44" s="11"/>
+      <c r="A44" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B44" s="650">
+        <f>L23</f>
+        <v>439.94641492285933</v>
+      </c>
+      <c r="C44" s="11">
+        <f>0.6*44</f>
+        <v>26.4</v>
+      </c>
+      <c r="D44" s="1">
+        <f>B44*C44</f>
+        <v>11614.585353963486</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="29"/>
+        <v>6274.1126673280814</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="30"/>
+        <v>0.11954089322012156</v>
+      </c>
       <c r="S44" s="1"/>
       <c r="U44" s="1"/>
     </row>
     <row r="45" spans="1:40">
-      <c r="A45" s="11"/>
+      <c r="A45" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B45" s="650">
+        <f>L17+L19+L18+L20</f>
+        <v>2020.4151789999999</v>
+      </c>
+      <c r="C45" s="11">
+        <f>0.6*14</f>
+        <v>8.4</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" ref="D43:D46" si="31">B45*C45</f>
+        <v>16971.487503600001</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="29"/>
+        <v>9167.8713862480054</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="30"/>
+        <v>0.17467578166810319</v>
+      </c>
       <c r="S45" s="1"/>
       <c r="U45" s="1"/>
     </row>
     <row r="46" spans="1:40">
-      <c r="A46" s="11"/>
+      <c r="A46" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B46" s="650">
+        <f>L21+L22</f>
+        <v>1540.0584760000002</v>
+      </c>
+      <c r="C46" s="11">
+        <f>0.6*33</f>
+        <v>19.8</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="31"/>
+        <v>30493.157824800004</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="29"/>
+        <v>16472.177175926892</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="30"/>
+        <v>0.31384498132211069</v>
+      </c>
       <c r="S46" s="1"/>
       <c r="U46" s="1"/>
     </row>
     <row r="47" spans="1:40">
       <c r="A47" s="11"/>
+      <c r="B47" s="650">
+        <f>SUM(B42:B46)</f>
+        <v>25443.684165141814</v>
+      </c>
+      <c r="D47" s="1">
+        <f>SUM(D42:D46)</f>
+        <v>97159.934488497514</v>
+      </c>
+      <c r="E47" s="1">
+        <f>D47/D$47*E$49</f>
+        <v>52485.074339999999</v>
+      </c>
+      <c r="F47" s="1">
+        <f>E47/E$47</f>
+        <v>1</v>
+      </c>
       <c r="S47" s="1"/>
       <c r="U47" s="1"/>
     </row>
@@ -38101,22 +38264,44 @@
       <c r="S48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="11"/>
+    <row r="49" spans="1:21" ht="28.5">
+      <c r="A49" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B49" s="11">
+        <v>104242</v>
+      </c>
+      <c r="D49" s="651" t="s">
+        <v>567</v>
+      </c>
+      <c r="E49" s="1">
+        <v>52485.074339999999</v>
+      </c>
       <c r="S49" s="1"/>
       <c r="U49" s="1"/>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="11"/>
+      <c r="A50" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B50" s="11">
+        <v>50000</v>
+      </c>
       <c r="S50" s="1"/>
       <c r="U50" s="1"/>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="11"/>
+      <c r="A51" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B51" s="11">
+        <v>10041</v>
+      </c>
       <c r="S51" s="1"/>
       <c r="U51" s="1"/>
     </row>
     <row r="52" spans="1:21">
+      <c r="A52" s="11"/>
       <c r="S52" s="1"/>
       <c r="U52" s="1"/>
     </row>
@@ -38145,7 +38330,6 @@
       <c r="U58" s="1"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="K59" s="5"/>
       <c r="S59" s="1"/>
       <c r="U59" s="1"/>
     </row>
@@ -38200,6 +38384,7 @@
       <c r="U69" s="1"/>
     </row>
     <row r="70" spans="11:21">
+      <c r="K70" s="5"/>
       <c r="S70" s="1"/>
       <c r="U70" s="1"/>
     </row>
@@ -38214,6 +38399,10 @@
     <row r="73" spans="11:21">
       <c r="S73" s="1"/>
       <c r="U73" s="1"/>
+    </row>
+    <row r="74" spans="11:21">
+      <c r="S74" s="1"/>
+      <c r="U74" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:AH38" xr:uid="{00000000-0009-0000-0000-000002000000}">
@@ -38226,15 +38415,6 @@
     <filterColumn colId="25" showButton="0"/>
   </autoFilter>
   <mergeCells count="24">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="AJ7:AL7"/>
     <mergeCell ref="AM7:AN7"/>
     <mergeCell ref="AJ6:AN6"/>
@@ -38250,6 +38430,15 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="AC6:AH6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="'Top-Down Validation'!H9" display="→Go to: Top-Down Validation" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -38272,29 +38461,29 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="340" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="340" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="340" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="340" customWidth="1"/>
+    <col min="1" max="1" width="28.265625" style="340" customWidth="1"/>
+    <col min="2" max="2" width="27.73046875" style="340" customWidth="1"/>
+    <col min="3" max="3" width="12.73046875" style="340" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="340" customWidth="1"/>
     <col min="5" max="5" width="17" style="340" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="340" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="340" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="340" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="340" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="340" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="340" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="340" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" style="340" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="11.42578125" style="340"/>
-    <col min="19" max="19" width="12.85546875" style="340" customWidth="1"/>
-    <col min="20" max="20" width="3.7109375" style="340" customWidth="1"/>
-    <col min="21" max="23" width="12.7109375" style="340" customWidth="1"/>
-    <col min="24" max="24" width="2.7109375" style="340" customWidth="1"/>
-    <col min="25" max="26" width="13.42578125" style="340" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="14.42578125" style="340" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="16384" width="11.42578125" style="340"/>
+    <col min="6" max="6" width="16.3984375" style="340" customWidth="1"/>
+    <col min="7" max="7" width="2.265625" style="340" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" style="340" customWidth="1"/>
+    <col min="9" max="9" width="11.73046875" style="340" customWidth="1"/>
+    <col min="10" max="10" width="2.73046875" style="340" customWidth="1"/>
+    <col min="11" max="11" width="9.3984375" style="340" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.3984375" style="340" customWidth="1"/>
+    <col min="13" max="13" width="7.86328125" style="340" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="11.3984375" style="340"/>
+    <col min="19" max="19" width="12.86328125" style="340" customWidth="1"/>
+    <col min="20" max="20" width="3.73046875" style="340" customWidth="1"/>
+    <col min="21" max="23" width="12.73046875" style="340" customWidth="1"/>
+    <col min="24" max="24" width="2.73046875" style="340" customWidth="1"/>
+    <col min="25" max="26" width="13.3984375" style="340" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="14.3984375" style="340" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="16384" width="11.3984375" style="340"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="27.75" customHeight="1" thickBot="1">
@@ -38347,97 +38536,97 @@
       </c>
     </row>
     <row r="4" spans="1:28" s="63" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A4" s="560" t="s">
+      <c r="A4" s="572" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="561"/>
+      <c r="B4" s="573"/>
     </row>
     <row r="5" spans="1:28" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A5" s="598"/>
-      <c r="B5" s="598"/>
-      <c r="C5" s="598"/>
+      <c r="A5" s="603"/>
+      <c r="B5" s="603"/>
+      <c r="C5" s="603"/>
       <c r="AA5" s="335"/>
     </row>
-    <row r="6" spans="1:28" ht="20.25" thickBot="1">
-      <c r="A6" s="599" t="s">
+    <row r="6" spans="1:28" ht="19.899999999999999" thickBot="1">
+      <c r="A6" s="598" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="600"/>
-      <c r="C6" s="601"/>
+      <c r="B6" s="599"/>
+      <c r="C6" s="600"/>
       <c r="D6" s="335"/>
-      <c r="E6" s="562" t="s">
+      <c r="E6" s="570" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="564"/>
+      <c r="F6" s="571"/>
       <c r="G6" s="335"/>
-      <c r="H6" s="562" t="s">
+      <c r="H6" s="570" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="564"/>
+      <c r="I6" s="571"/>
       <c r="J6" s="335"/>
-      <c r="K6" s="562" t="s">
+      <c r="K6" s="570" t="s">
         <v>321</v>
       </c>
-      <c r="L6" s="563"/>
-      <c r="M6" s="563"/>
-      <c r="N6" s="563"/>
-      <c r="O6" s="563"/>
-      <c r="P6" s="563"/>
-      <c r="Q6" s="563"/>
-      <c r="R6" s="563"/>
-      <c r="S6" s="564"/>
+      <c r="L6" s="574"/>
+      <c r="M6" s="574"/>
+      <c r="N6" s="574"/>
+      <c r="O6" s="574"/>
+      <c r="P6" s="574"/>
+      <c r="Q6" s="574"/>
+      <c r="R6" s="574"/>
+      <c r="S6" s="571"/>
       <c r="T6" s="335"/>
-      <c r="U6" s="562" t="s">
+      <c r="U6" s="570" t="s">
         <v>284</v>
       </c>
-      <c r="V6" s="563"/>
-      <c r="W6" s="564"/>
+      <c r="V6" s="574"/>
+      <c r="W6" s="571"/>
       <c r="X6" s="335"/>
-      <c r="Y6" s="599" t="s">
+      <c r="Y6" s="598" t="s">
         <v>364</v>
       </c>
-      <c r="Z6" s="600"/>
-      <c r="AA6" s="600"/>
-      <c r="AB6" s="601"/>
+      <c r="Z6" s="599"/>
+      <c r="AA6" s="599"/>
+      <c r="AB6" s="600"/>
     </row>
     <row r="7" spans="1:28" s="64" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A7" s="590" t="s">
+      <c r="A7" s="604" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="605" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="594" t="s">
+      <c r="C7" s="606" t="s">
         <v>196</v>
       </c>
       <c r="D7" s="61"/>
-      <c r="E7" s="596" t="s">
+      <c r="E7" s="608" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="597"/>
+      <c r="F7" s="609"/>
       <c r="G7" s="61"/>
-      <c r="H7" s="591" t="s">
+      <c r="H7" s="601" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="595"/>
+      <c r="I7" s="607"/>
       <c r="J7" s="61"/>
-      <c r="K7" s="591" t="s">
+      <c r="K7" s="601" t="s">
         <v>231</v>
       </c>
-      <c r="L7" s="593"/>
-      <c r="M7" s="593"/>
-      <c r="N7" s="593" t="s">
+      <c r="L7" s="602"/>
+      <c r="M7" s="602"/>
+      <c r="N7" s="602" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="593"/>
-      <c r="P7" s="593" t="s">
+      <c r="O7" s="602"/>
+      <c r="P7" s="602" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="593"/>
-      <c r="R7" s="593" t="s">
+      <c r="Q7" s="602"/>
+      <c r="R7" s="602" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="595"/>
+      <c r="S7" s="607"/>
       <c r="T7" s="61"/>
       <c r="U7" s="153" t="s">
         <v>25</v>
@@ -38458,14 +38647,14 @@
       <c r="AA7" s="361" t="s">
         <v>358</v>
       </c>
-      <c r="AB7" s="569" t="s">
+      <c r="AB7" s="579" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="39" customHeight="1">
-      <c r="A8" s="591"/>
-      <c r="B8" s="593"/>
-      <c r="C8" s="595"/>
+      <c r="A8" s="601"/>
+      <c r="B8" s="602"/>
+      <c r="C8" s="607"/>
       <c r="D8" s="61"/>
       <c r="E8" s="355" t="s">
         <v>38</v>
@@ -38528,7 +38717,7 @@
       <c r="AA8" s="354" t="s">
         <v>243</v>
       </c>
-      <c r="AB8" s="570"/>
+      <c r="AB8" s="580"/>
     </row>
     <row r="9" spans="1:28" ht="15.75">
       <c r="A9" s="381" t="s">
@@ -38647,7 +38836,7 @@
       <c r="AA10" s="331"/>
       <c r="AB10" s="365"/>
     </row>
-    <row r="11" spans="1:28" ht="16.5" thickBot="1">
+    <row r="11" spans="1:28" ht="16.149999999999999" thickBot="1">
       <c r="A11" s="187" t="s">
         <v>333</v>
       </c>
@@ -38744,6 +38933,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="U6:W6"/>
     <mergeCell ref="AB7:AB8"/>
     <mergeCell ref="Y6:AB6"/>
@@ -38751,17 +38951,6 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="K6:S6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="'Top-Down Validation'!H9" display="→Go to: Top-Down Validation" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -38789,45 +38978,45 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="44"/>
-    <col min="8" max="8" width="10.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="44"/>
-    <col min="10" max="10" width="10.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="44" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.85546875" style="44" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="13.42578125" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="1.85546875" style="44" customWidth="1"/>
-    <col min="19" max="21" width="9.140625" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="21.140625" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="11.140625" style="44" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="36.86328125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.86328125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="2.1328125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1328125" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="44"/>
+    <col min="8" max="8" width="10.73046875" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" style="44"/>
+    <col min="10" max="10" width="10.73046875" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.3984375" style="44" customWidth="1"/>
+    <col min="12" max="12" width="9.265625" style="44" customWidth="1"/>
+    <col min="13" max="13" width="9.3984375" style="44" customWidth="1"/>
+    <col min="14" max="14" width="8.1328125" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.86328125" style="44" customWidth="1"/>
+    <col min="16" max="16" width="11.1328125" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="13.3984375" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="1.86328125" style="44" customWidth="1"/>
+    <col min="19" max="21" width="9.1328125" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="21.1328125" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="11.1328125" style="44" customWidth="1"/>
+    <col min="24" max="24" width="9.1328125" style="44" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="10" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9.140625" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.85546875" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="14.7109375" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="1.85546875" style="44" customWidth="1"/>
-    <col min="30" max="30" width="12.85546875" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9.1328125" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.86328125" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="14.73046875" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="1.86328125" style="44" customWidth="1"/>
+    <col min="30" max="30" width="12.86328125" style="44" customWidth="1" outlineLevel="1"/>
     <col min="31" max="31" width="16" style="44" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="11.7109375" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="12.140625" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="2.42578125" style="44" customWidth="1"/>
+    <col min="32" max="32" width="11.73046875" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="12.1328125" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="2.3984375" style="44" customWidth="1"/>
     <col min="35" max="35" width="12" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="11.42578125" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="11.28515625" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="10.85546875" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="16384" width="9.140625" style="44"/>
+    <col min="36" max="36" width="11.3984375" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="11.265625" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="10.86328125" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="16384" width="9.1328125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
@@ -38857,10 +39046,10 @@
       </c>
     </row>
     <row r="4" spans="1:39" s="66" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A4" s="560" t="s">
+      <c r="A4" s="572" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="561"/>
+      <c r="B4" s="573"/>
     </row>
     <row r="5" spans="1:39" s="66" customFormat="1" ht="99.75" customHeight="1" thickBot="1">
       <c r="A5" s="67"/>
@@ -38868,114 +39057,114 @@
       <c r="X5" s="68"/>
       <c r="Z5" s="68"/>
     </row>
-    <row r="6" spans="1:39" ht="20.25" thickBot="1">
-      <c r="A6" s="562" t="s">
+    <row r="6" spans="1:39" ht="19.899999999999999" thickBot="1">
+      <c r="A6" s="570" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="563"/>
-      <c r="C6" s="564"/>
+      <c r="B6" s="574"/>
+      <c r="C6" s="571"/>
       <c r="D6"/>
-      <c r="E6" s="562" t="s">
+      <c r="E6" s="570" t="s">
         <v>219</v>
       </c>
-      <c r="F6" s="563"/>
-      <c r="G6" s="563"/>
-      <c r="H6" s="563"/>
-      <c r="I6" s="563"/>
-      <c r="J6" s="563"/>
-      <c r="K6" s="563"/>
-      <c r="L6" s="563"/>
-      <c r="M6" s="563"/>
-      <c r="N6" s="564"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="574"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="574"/>
+      <c r="K6" s="574"/>
+      <c r="L6" s="574"/>
+      <c r="M6" s="574"/>
+      <c r="N6" s="571"/>
       <c r="O6"/>
-      <c r="P6" s="562" t="s">
+      <c r="P6" s="570" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="564"/>
+      <c r="Q6" s="571"/>
       <c r="R6"/>
-      <c r="S6" s="562" t="s">
+      <c r="S6" s="570" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="563"/>
-      <c r="U6" s="563"/>
-      <c r="V6" s="563"/>
-      <c r="W6" s="563"/>
-      <c r="X6" s="563"/>
-      <c r="Y6" s="563"/>
-      <c r="Z6" s="563"/>
-      <c r="AA6" s="563"/>
-      <c r="AB6" s="564"/>
+      <c r="T6" s="574"/>
+      <c r="U6" s="574"/>
+      <c r="V6" s="574"/>
+      <c r="W6" s="574"/>
+      <c r="X6" s="574"/>
+      <c r="Y6" s="574"/>
+      <c r="Z6" s="574"/>
+      <c r="AA6" s="574"/>
+      <c r="AB6" s="571"/>
       <c r="AC6"/>
-      <c r="AD6" s="562" t="s">
+      <c r="AD6" s="570" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="563"/>
-      <c r="AF6" s="563"/>
-      <c r="AG6" s="564"/>
+      <c r="AE6" s="574"/>
+      <c r="AF6" s="574"/>
+      <c r="AG6" s="571"/>
       <c r="AH6"/>
-      <c r="AI6" s="562" t="s">
+      <c r="AI6" s="570" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="563"/>
-      <c r="AK6" s="563"/>
-      <c r="AL6" s="564"/>
+      <c r="AJ6" s="574"/>
+      <c r="AK6" s="574"/>
+      <c r="AL6" s="571"/>
       <c r="AM6" s="69"/>
     </row>
     <row r="7" spans="1:39" s="69" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A7" s="602" t="s">
+      <c r="A7" s="610" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="604" t="s">
+      <c r="B7" s="612" t="s">
         <v>375</v>
       </c>
-      <c r="C7" s="606" t="s">
+      <c r="C7" s="614" t="s">
         <v>196</v>
       </c>
       <c r="D7" s="81"/>
-      <c r="E7" s="576" t="s">
+      <c r="E7" s="584" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="577"/>
-      <c r="G7" s="579" t="s">
+      <c r="F7" s="585"/>
+      <c r="G7" s="587" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="577"/>
-      <c r="I7" s="579" t="s">
+      <c r="H7" s="585"/>
+      <c r="I7" s="587" t="s">
         <v>247</v>
       </c>
-      <c r="J7" s="577"/>
-      <c r="K7" s="579" t="s">
+      <c r="J7" s="585"/>
+      <c r="K7" s="587" t="s">
         <v>248</v>
       </c>
-      <c r="L7" s="589"/>
-      <c r="M7" s="577" t="s">
+      <c r="L7" s="586"/>
+      <c r="M7" s="585" t="s">
         <v>249</v>
       </c>
-      <c r="N7" s="578"/>
+      <c r="N7" s="588"/>
       <c r="O7" s="81"/>
-      <c r="P7" s="573" t="s">
+      <c r="P7" s="568" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="574"/>
+      <c r="Q7" s="583"/>
       <c r="R7" s="81"/>
-      <c r="S7" s="576" t="s">
+      <c r="S7" s="584" t="s">
         <v>250</v>
       </c>
-      <c r="T7" s="577"/>
-      <c r="U7" s="577"/>
-      <c r="V7" s="577"/>
-      <c r="W7" s="579" t="s">
+      <c r="T7" s="585"/>
+      <c r="U7" s="585"/>
+      <c r="V7" s="585"/>
+      <c r="W7" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="589"/>
-      <c r="Y7" s="577" t="s">
+      <c r="X7" s="586"/>
+      <c r="Y7" s="585" t="s">
         <v>22</v>
       </c>
-      <c r="Z7" s="589"/>
-      <c r="AA7" s="588" t="s">
+      <c r="Z7" s="586"/>
+      <c r="AA7" s="597" t="s">
         <v>23</v>
       </c>
-      <c r="AB7" s="574"/>
+      <c r="AB7" s="583"/>
       <c r="AC7" s="81"/>
       <c r="AD7" s="241" t="s">
         <v>24</v>
@@ -39004,9 +39193,9 @@
       </c>
     </row>
     <row r="8" spans="1:39" s="69" customFormat="1" ht="47.25">
-      <c r="A8" s="603"/>
-      <c r="B8" s="605"/>
-      <c r="C8" s="607"/>
+      <c r="A8" s="611"/>
+      <c r="B8" s="613"/>
+      <c r="C8" s="615"/>
       <c r="D8" s="87"/>
       <c r="E8" s="288" t="s">
         <v>254</v>
@@ -39703,7 +39892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38" s="504" customFormat="1" ht="16.5" thickBot="1">
+    <row r="17" spans="1:38" s="504" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A17" s="505" t="s">
         <v>335</v>
       </c>
@@ -39831,11 +40020,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="S6:AB6"/>
+    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="S7:V7"/>
     <mergeCell ref="AA7:AB7"/>
@@ -39845,12 +40035,11 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="S6:AB6"/>
-    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="W7:X7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="'Top-Down Validation'!H9" display="→Go to: Top-Down Validation" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -39873,10 +40062,10 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39937,13 +40126,13 @@
       <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.86328125" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -40056,7 +40245,7 @@
       </c>
       <c r="F6" s="526"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75">
+    <row r="8" spans="1:8" ht="18">
       <c r="B8" s="25" t="s">
         <v>517</v>
       </c>
@@ -40080,13 +40269,13 @@
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:8" ht="14.65" thickBot="1"/>
+    <row r="11" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A11" s="559" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickTop="1">
+    <row r="12" spans="1:8" ht="14.65" thickTop="1">
       <c r="A12" t="s">
         <v>551</v>
       </c>
@@ -40108,9 +40297,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -40429,7 +40618,7 @@
       <c r="H17" s="539"/>
       <c r="I17" s="539"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75">
+    <row r="18" spans="1:10" ht="18">
       <c r="A18" s="469"/>
       <c r="B18" s="545"/>
       <c r="C18" s="545"/>
@@ -40449,13 +40638,13 @@
         <v>532</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:10" ht="14.65" thickBot="1"/>
+    <row r="20" spans="1:10" ht="15" thickTop="1" thickBot="1">
       <c r="A20" s="559" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickTop="1">
+    <row r="21" spans="1:10" ht="14.65" thickTop="1">
       <c r="A21" t="s">
         <v>552</v>
       </c>
@@ -40486,57 +40675,57 @@
       <selection pane="bottomRight" activeCell="AY21" sqref="AY21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="44" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="44" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="44" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="44" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="44" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="44" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="44" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="44" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="44" customWidth="1"/>
-    <col min="17" max="17" width="3.85546875" style="44" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="44" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="44" customWidth="1"/>
-    <col min="20" max="20" width="3.85546875" style="44" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="44" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" style="44" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" style="44" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" style="44" customWidth="1"/>
-    <col min="26" max="26" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="11.42578125" style="44"/>
-    <col min="33" max="33" width="3.7109375" style="44" customWidth="1"/>
-    <col min="34" max="34" width="15.42578125" style="44" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.85546875" style="44" customWidth="1"/>
-    <col min="37" max="37" width="14.7109375" style="44" customWidth="1"/>
-    <col min="38" max="38" width="1.85546875" style="44" customWidth="1"/>
-    <col min="39" max="39" width="9.7109375" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="13.42578125" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="11.42578125" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="12.85546875" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="43" max="43" width="12.7109375" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="44" max="44" width="12.28515625" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="16.1328125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="27.1328125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="44" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.265625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="13.265625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="26.3984375" style="44" customWidth="1"/>
+    <col min="8" max="8" width="2.73046875" style="44" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" style="44" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" style="44" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="44" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" style="44" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" style="44" customWidth="1"/>
+    <col min="14" max="14" width="5.73046875" style="44" customWidth="1"/>
+    <col min="15" max="15" width="11.3984375" style="44" customWidth="1"/>
+    <col min="16" max="16" width="16.73046875" style="44" customWidth="1"/>
+    <col min="17" max="17" width="3.86328125" style="44" customWidth="1"/>
+    <col min="18" max="18" width="11.86328125" style="44" customWidth="1"/>
+    <col min="19" max="19" width="13.86328125" style="44" customWidth="1"/>
+    <col min="20" max="20" width="3.86328125" style="44" customWidth="1"/>
+    <col min="21" max="21" width="11.3984375" style="44" customWidth="1"/>
+    <col min="22" max="22" width="26.73046875" style="44" customWidth="1"/>
+    <col min="23" max="23" width="9.3984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.3984375" style="44" customWidth="1"/>
+    <col min="25" max="25" width="7.3984375" style="44" customWidth="1"/>
+    <col min="26" max="26" width="7.86328125" style="44" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="11.3984375" style="44"/>
+    <col min="33" max="33" width="3.73046875" style="44" customWidth="1"/>
+    <col min="34" max="34" width="15.3984375" style="44" customWidth="1"/>
+    <col min="35" max="35" width="15.3984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.86328125" style="44" customWidth="1"/>
+    <col min="37" max="37" width="14.73046875" style="44" customWidth="1"/>
+    <col min="38" max="38" width="1.86328125" style="44" customWidth="1"/>
+    <col min="39" max="39" width="9.73046875" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="13.3984375" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="11.3984375" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="42" width="12.86328125" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="43" max="43" width="12.73046875" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="44" max="44" width="12.265625" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="45" max="45" width="7" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="12.28515625" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="12.265625" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="47" max="47" width="15" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="48" width="14.42578125" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="1.7109375" style="44" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="33.7109375" style="44" customWidth="1"/>
-    <col min="51" max="51" width="3.7109375" style="44" customWidth="1"/>
+    <col min="48" max="48" width="14.3984375" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="1.73046875" style="44" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="33.73046875" style="44" customWidth="1"/>
+    <col min="51" max="51" width="3.73046875" style="44" customWidth="1"/>
     <col min="52" max="52" width="26" style="44" bestFit="1" customWidth="1"/>
     <col min="53" max="55" width="26" style="44" customWidth="1"/>
-    <col min="56" max="16384" width="11.42578125" style="44"/>
+    <col min="56" max="16384" width="11.3984375" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="27.75" customHeight="1" thickBot="1">
@@ -40610,81 +40799,81 @@
       </c>
     </row>
     <row r="4" spans="1:55" s="63" customFormat="1" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A4" s="560" t="s">
+      <c r="A4" s="572" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="561"/>
+      <c r="B4" s="573"/>
     </row>
     <row r="5" spans="1:55" ht="101.25" customHeight="1" thickBot="1">
-      <c r="A5" s="598"/>
-      <c r="B5" s="598"/>
-      <c r="C5" s="598"/>
-      <c r="D5" s="598"/>
-      <c r="E5" s="598"/>
-      <c r="F5" s="598"/>
-      <c r="G5" s="598"/>
-    </row>
-    <row r="6" spans="1:55" ht="20.25" thickBot="1">
-      <c r="A6" s="562" t="s">
+      <c r="A5" s="603"/>
+      <c r="B5" s="603"/>
+      <c r="C5" s="603"/>
+      <c r="D5" s="603"/>
+      <c r="E5" s="603"/>
+      <c r="F5" s="603"/>
+      <c r="G5" s="603"/>
+    </row>
+    <row r="6" spans="1:55" ht="19.899999999999999" thickBot="1">
+      <c r="A6" s="570" t="s">
         <v>508</v>
       </c>
-      <c r="B6" s="563"/>
-      <c r="C6" s="563"/>
-      <c r="D6" s="563"/>
-      <c r="E6" s="563"/>
-      <c r="F6" s="563"/>
-      <c r="G6" s="564"/>
+      <c r="B6" s="574"/>
+      <c r="C6" s="574"/>
+      <c r="D6" s="574"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="571"/>
       <c r="H6"/>
-      <c r="I6" s="562" t="s">
+      <c r="I6" s="570" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="563"/>
-      <c r="K6" s="563"/>
-      <c r="L6" s="563"/>
-      <c r="M6" s="563"/>
-      <c r="N6" s="563"/>
-      <c r="O6" s="563"/>
-      <c r="P6" s="564"/>
+      <c r="J6" s="574"/>
+      <c r="K6" s="574"/>
+      <c r="L6" s="574"/>
+      <c r="M6" s="574"/>
+      <c r="N6" s="574"/>
+      <c r="O6" s="574"/>
+      <c r="P6" s="571"/>
       <c r="Q6"/>
-      <c r="R6" s="562" t="s">
+      <c r="R6" s="570" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="564"/>
+      <c r="S6" s="571"/>
       <c r="T6"/>
-      <c r="U6" s="562" t="s">
+      <c r="U6" s="570" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="563"/>
-      <c r="W6" s="563"/>
-      <c r="X6" s="563"/>
-      <c r="Y6" s="563"/>
-      <c r="Z6" s="563"/>
-      <c r="AA6" s="563"/>
-      <c r="AB6" s="563"/>
-      <c r="AC6" s="563"/>
-      <c r="AD6" s="563"/>
-      <c r="AE6" s="563"/>
-      <c r="AF6" s="564"/>
+      <c r="V6" s="574"/>
+      <c r="W6" s="574"/>
+      <c r="X6" s="574"/>
+      <c r="Y6" s="574"/>
+      <c r="Z6" s="574"/>
+      <c r="AA6" s="574"/>
+      <c r="AB6" s="574"/>
+      <c r="AC6" s="574"/>
+      <c r="AD6" s="574"/>
+      <c r="AE6" s="574"/>
+      <c r="AF6" s="571"/>
       <c r="AG6"/>
-      <c r="AH6" s="562" t="s">
+      <c r="AH6" s="570" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="563"/>
-      <c r="AJ6" s="563"/>
-      <c r="AK6" s="564"/>
+      <c r="AI6" s="574"/>
+      <c r="AJ6" s="574"/>
+      <c r="AK6" s="571"/>
       <c r="AL6"/>
-      <c r="AM6" s="612" t="s">
+      <c r="AM6" s="617" t="s">
         <v>8</v>
       </c>
-      <c r="AN6" s="613"/>
-      <c r="AO6" s="613"/>
-      <c r="AP6" s="613"/>
-      <c r="AQ6" s="613"/>
-      <c r="AR6" s="613"/>
-      <c r="AS6" s="613"/>
-      <c r="AT6" s="613"/>
-      <c r="AU6" s="613"/>
-      <c r="AV6" s="614"/>
+      <c r="AN6" s="618"/>
+      <c r="AO6" s="618"/>
+      <c r="AP6" s="618"/>
+      <c r="AQ6" s="618"/>
+      <c r="AR6" s="618"/>
+      <c r="AS6" s="618"/>
+      <c r="AT6" s="618"/>
+      <c r="AU6" s="618"/>
+      <c r="AV6" s="619"/>
       <c r="AX6" s="533" t="s">
         <v>537</v>
       </c>
@@ -40702,70 +40891,70 @@
       </c>
     </row>
     <row r="7" spans="1:55" s="64" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A7" s="590" t="s">
+      <c r="A7" s="604" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="605" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="592" t="s">
+      <c r="C7" s="605" t="s">
         <v>507</v>
       </c>
-      <c r="D7" s="592" t="s">
+      <c r="D7" s="605" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="592" t="s">
+      <c r="E7" s="605" t="s">
         <v>223</v>
       </c>
-      <c r="F7" s="608"/>
-      <c r="G7" s="594"/>
+      <c r="F7" s="620"/>
+      <c r="G7" s="606"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="591" t="s">
+      <c r="I7" s="601" t="s">
         <v>224</v>
       </c>
-      <c r="J7" s="593"/>
-      <c r="K7" s="609" t="s">
+      <c r="J7" s="602"/>
+      <c r="K7" s="621" t="s">
         <v>225</v>
       </c>
-      <c r="L7" s="610"/>
+      <c r="L7" s="622"/>
       <c r="M7" s="151" t="s">
         <v>226</v>
       </c>
-      <c r="N7" s="593" t="s">
+      <c r="N7" s="602" t="s">
         <v>227</v>
       </c>
-      <c r="O7" s="593"/>
+      <c r="O7" s="602"/>
       <c r="P7" s="152" t="s">
         <v>228</v>
       </c>
       <c r="Q7" s="18"/>
-      <c r="R7" s="591" t="s">
+      <c r="R7" s="601" t="s">
         <v>229</v>
       </c>
-      <c r="S7" s="595"/>
+      <c r="S7" s="607"/>
       <c r="T7" s="18"/>
-      <c r="U7" s="591" t="s">
+      <c r="U7" s="601" t="s">
         <v>230</v>
       </c>
-      <c r="V7" s="593"/>
-      <c r="W7" s="593" t="s">
+      <c r="V7" s="602"/>
+      <c r="W7" s="602" t="s">
         <v>265</v>
       </c>
-      <c r="X7" s="593"/>
-      <c r="Y7" s="593"/>
-      <c r="Z7" s="593"/>
-      <c r="AA7" s="593" t="s">
+      <c r="X7" s="602"/>
+      <c r="Y7" s="602"/>
+      <c r="Z7" s="602"/>
+      <c r="AA7" s="602" t="s">
         <v>21</v>
       </c>
-      <c r="AB7" s="593"/>
-      <c r="AC7" s="593" t="s">
+      <c r="AB7" s="602"/>
+      <c r="AC7" s="602" t="s">
         <v>22</v>
       </c>
-      <c r="AD7" s="593"/>
-      <c r="AE7" s="593" t="s">
+      <c r="AD7" s="602"/>
+      <c r="AE7" s="602" t="s">
         <v>23</v>
       </c>
-      <c r="AF7" s="595"/>
+      <c r="AF7" s="607"/>
       <c r="AG7" s="18"/>
       <c r="AH7" s="153" t="s">
         <v>24</v>
@@ -40780,20 +40969,20 @@
         <v>27</v>
       </c>
       <c r="AL7" s="18"/>
-      <c r="AM7" s="603" t="s">
+      <c r="AM7" s="611" t="s">
         <v>232</v>
       </c>
-      <c r="AN7" s="611"/>
-      <c r="AO7" s="611"/>
-      <c r="AP7" s="611"/>
-      <c r="AQ7" s="611" t="s">
+      <c r="AN7" s="616"/>
+      <c r="AO7" s="616"/>
+      <c r="AP7" s="616"/>
+      <c r="AQ7" s="616" t="s">
         <v>233</v>
       </c>
-      <c r="AR7" s="611"/>
-      <c r="AS7" s="611" t="s">
+      <c r="AR7" s="616"/>
+      <c r="AS7" s="616" t="s">
         <v>234</v>
       </c>
-      <c r="AT7" s="611"/>
+      <c r="AT7" s="616"/>
       <c r="AU7" s="389" t="s">
         <v>236</v>
       </c>
@@ -40817,10 +41006,10 @@
       </c>
     </row>
     <row r="8" spans="1:55" ht="94.5">
-      <c r="A8" s="591"/>
-      <c r="B8" s="593"/>
-      <c r="C8" s="593"/>
-      <c r="D8" s="593"/>
+      <c r="A8" s="601"/>
+      <c r="B8" s="602"/>
+      <c r="C8" s="602"/>
+      <c r="D8" s="602"/>
       <c r="E8" s="154" t="s">
         <v>266</v>
       </c>
@@ -41028,7 +41217,7 @@
       <c r="BB9" s="530"/>
       <c r="BC9" s="530"/>
     </row>
-    <row r="10" spans="1:55" ht="18.75">
+    <row r="10" spans="1:55" ht="18">
       <c r="A10" s="174" t="s">
         <v>207</v>
       </c>
@@ -41160,7 +41349,7 @@
         <v>2.31399168E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:55" ht="18.75">
+    <row r="11" spans="1:55" ht="18">
       <c r="A11" s="174" t="s">
         <v>207</v>
       </c>
@@ -41292,7 +41481,7 @@
         <v>5.7849792000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="18.75">
+    <row r="12" spans="1:55" ht="18">
       <c r="A12" s="174" t="s">
         <v>207</v>
       </c>
@@ -41424,7 +41613,7 @@
         <v>0.19072901119999999</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="18.75">
+    <row r="13" spans="1:55" ht="18">
       <c r="A13" s="174"/>
       <c r="B13" s="175"/>
       <c r="C13" s="175"/>
@@ -41479,7 +41668,7 @@
       <c r="BB13" s="555"/>
       <c r="BC13" s="555"/>
     </row>
-    <row r="14" spans="1:55" ht="18.75">
+    <row r="14" spans="1:55" ht="18">
       <c r="A14" s="174" t="s">
         <v>207</v>
       </c>
@@ -41603,7 +41792,7 @@
         <v>8.7681877919999999E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:55" ht="18.75">
+    <row r="15" spans="1:55" ht="18">
       <c r="A15" s="174" t="s">
         <v>207</v>
       </c>
@@ -41727,7 +41916,7 @@
         <v>7.4145519629999988E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:55" ht="18.75">
+    <row r="16" spans="1:55" ht="18">
       <c r="A16" s="174" t="s">
         <v>207</v>
       </c>
@@ -41877,19 +42066,28 @@
       <c r="AJ17" s="65"/>
       <c r="AK17" s="65"/>
     </row>
-    <row r="19" spans="1:50" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:50" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:50" ht="14.65" thickBot="1"/>
+    <row r="20" spans="1:50" ht="15" thickTop="1" thickBot="1">
       <c r="AX20" s="559" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="15.75" thickTop="1">
+    <row r="21" spans="1:50" ht="14.65" thickTop="1">
       <c r="AX21" s="44" t="s">
         <v>554</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="AC7:AD7"/>
     <mergeCell ref="AE7:AF7"/>
@@ -41906,15 +42104,6 @@
     <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <phoneticPr fontId="108" type="noConversion"/>
   <hyperlinks>
@@ -41937,6 +42126,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010050D038C78C4707429342B38D043CCC79" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="49e97abd9ebc8f0bd27ce035e99fdc92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="29f9fecb-a2e2-46d1-a4c5-f3d81a64ae02" xmlns:ns4="35accaf2-c3cf-48a6-bf2c-71bf5406864a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d59c72561700142fa69dea5ac991231f" ns3:_="" ns4:_="">
     <xsd:import namespace="29f9fecb-a2e2-46d1-a4c5-f3d81a64ae02"/>
@@ -42165,12 +42360,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{474379E8-E25F-4617-90FA-2442CE6DA6E0}">
   <ds:schemaRefs>
@@ -42180,6 +42369,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26C0072D-8C61-41CF-8BA6-9BE56A72138A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="29f9fecb-a2e2-46d1-a4c5-f3d81a64ae02"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="35accaf2-c3cf-48a6-bf2c-71bf5406864a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C32D3AD-6DBE-4C8A-8BED-BFD9F545F833}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42196,21 +42402,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26C0072D-8C61-41CF-8BA6-9BE56A72138A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="29f9fecb-a2e2-46d1-a4c5-f3d81a64ae02"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="35accaf2-c3cf-48a6-bf2c-71bf5406864a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>